--- a/SchedulingData/dynamic16/pso/scheduling2_1.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling2_1.xlsx
@@ -462,135 +462,135 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>246</v>
+        <v>210.8</v>
       </c>
       <c r="D2" t="n">
-        <v>321.1</v>
+        <v>270.7</v>
       </c>
       <c r="E2" t="n">
-        <v>11.02</v>
+        <v>12.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>211.6</v>
+        <v>239.84</v>
       </c>
       <c r="D3" t="n">
-        <v>299.08</v>
+        <v>304.92</v>
       </c>
       <c r="E3" t="n">
-        <v>11.732</v>
+        <v>9.667999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>321.1</v>
+        <v>237.02</v>
       </c>
       <c r="D4" t="n">
-        <v>389.44</v>
+        <v>269.82</v>
       </c>
       <c r="E4" t="n">
-        <v>7.276</v>
+        <v>13.648</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>214.36</v>
+        <v>304.92</v>
       </c>
       <c r="D5" t="n">
-        <v>266.26</v>
+        <v>387.6</v>
       </c>
       <c r="E5" t="n">
-        <v>12.044</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>389.44</v>
+        <v>254.14</v>
       </c>
       <c r="D6" t="n">
-        <v>451.4</v>
+        <v>340.24</v>
       </c>
       <c r="E6" t="n">
-        <v>3.22</v>
+        <v>11.096</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>451.4</v>
+        <v>269.82</v>
       </c>
       <c r="D7" t="n">
-        <v>487.9</v>
+        <v>311.48</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7</v>
+        <v>10.612</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>487.9</v>
+        <v>340.24</v>
       </c>
       <c r="D8" t="n">
-        <v>558.4</v>
+        <v>401.36</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>6.624</v>
       </c>
     </row>
     <row r="9">
@@ -599,17 +599,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>299.08</v>
+        <v>401.36</v>
       </c>
       <c r="D9" t="n">
-        <v>369.32</v>
+        <v>446.56</v>
       </c>
       <c r="E9" t="n">
-        <v>7.308</v>
+        <v>3.244</v>
       </c>
     </row>
     <row r="10">
@@ -618,55 +618,55 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>264.54</v>
+        <v>311.48</v>
       </c>
       <c r="D10" t="n">
-        <v>330.1</v>
+        <v>377.48</v>
       </c>
       <c r="E10" t="n">
-        <v>10.26</v>
+        <v>6.132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>216.18</v>
+        <v>446.56</v>
       </c>
       <c r="D11" t="n">
-        <v>300.34</v>
+        <v>482.94</v>
       </c>
       <c r="E11" t="n">
-        <v>11.116</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>266.26</v>
+        <v>482.94</v>
       </c>
       <c r="D12" t="n">
-        <v>308.66</v>
+        <v>558.37</v>
       </c>
       <c r="E12" t="n">
-        <v>8.444000000000001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -675,150 +675,150 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>221.18</v>
+        <v>270.7</v>
       </c>
       <c r="D13" t="n">
-        <v>272.64</v>
+        <v>319.62</v>
       </c>
       <c r="E13" t="n">
-        <v>14.356</v>
+        <v>9.848000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>369.32</v>
+        <v>377.48</v>
       </c>
       <c r="D14" t="n">
-        <v>447.12</v>
+        <v>430.7</v>
       </c>
       <c r="E14" t="n">
-        <v>2.628</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>447.12</v>
+        <v>387.6</v>
       </c>
       <c r="D15" t="n">
-        <v>518.66</v>
+        <v>465.6</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>518.66</v>
+        <v>465.6</v>
       </c>
       <c r="D16" t="n">
-        <v>578.12</v>
+        <v>531.92</v>
       </c>
       <c r="E16" t="n">
-        <v>25.744</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>300.34</v>
+        <v>430.7</v>
       </c>
       <c r="D17" t="n">
-        <v>356.58</v>
+        <v>488.2</v>
       </c>
       <c r="E17" t="n">
-        <v>6.132</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>272.64</v>
+        <v>488.2</v>
       </c>
       <c r="D18" t="n">
-        <v>322.94</v>
+        <v>579.24</v>
       </c>
       <c r="E18" t="n">
-        <v>10.456</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>322.94</v>
+        <v>579.24</v>
       </c>
       <c r="D19" t="n">
-        <v>375.76</v>
+        <v>650.28</v>
       </c>
       <c r="E19" t="n">
-        <v>6.804</v>
+        <v>27.036</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>375.76</v>
+        <v>212.5</v>
       </c>
       <c r="D20" t="n">
-        <v>447.2</v>
+        <v>276.24</v>
       </c>
       <c r="E20" t="n">
-        <v>3.78</v>
+        <v>13.556</v>
       </c>
     </row>
     <row r="21">
@@ -827,93 +827,93 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>308.66</v>
+        <v>220.9</v>
       </c>
       <c r="D21" t="n">
-        <v>381.48</v>
+        <v>275.3</v>
       </c>
       <c r="E21" t="n">
-        <v>5.232</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>356.58</v>
+        <v>650.28</v>
       </c>
       <c r="D22" t="n">
-        <v>394.22</v>
+        <v>719.48</v>
       </c>
       <c r="E22" t="n">
-        <v>3.008</v>
+        <v>23.736</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>330.1</v>
+        <v>531.92</v>
       </c>
       <c r="D23" t="n">
-        <v>406.22</v>
+        <v>576.28</v>
       </c>
       <c r="E23" t="n">
-        <v>5.788</v>
+        <v>27.244</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>447.2</v>
+        <v>275.3</v>
       </c>
       <c r="D24" t="n">
-        <v>529.5</v>
+        <v>321.16</v>
       </c>
       <c r="E24" t="n">
-        <v>0.14</v>
+        <v>8.664</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>529.5</v>
+        <v>558.37</v>
       </c>
       <c r="D25" t="n">
-        <v>601.12</v>
+        <v>597.47</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="26">
@@ -922,74 +922,74 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>558.4</v>
+        <v>576.28</v>
       </c>
       <c r="D26" t="n">
-        <v>601.4</v>
+        <v>628.26</v>
       </c>
       <c r="E26" t="n">
-        <v>26.4</v>
+        <v>24.176</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>406.22</v>
+        <v>319.62</v>
       </c>
       <c r="D27" t="n">
-        <v>467.72</v>
+        <v>390.54</v>
       </c>
       <c r="E27" t="n">
-        <v>1.768</v>
+        <v>5.376</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>467.72</v>
+        <v>390.54</v>
       </c>
       <c r="D28" t="n">
-        <v>550.78</v>
+        <v>451.46</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>394.22</v>
+        <v>451.46</v>
       </c>
       <c r="D29" t="n">
-        <v>431.92</v>
+        <v>536.35</v>
       </c>
       <c r="E29" t="n">
-        <v>0.368</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -998,36 +998,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>431.92</v>
+        <v>276.24</v>
       </c>
       <c r="D30" t="n">
-        <v>522.78</v>
+        <v>346.34</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>10.176</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>522.78</v>
+        <v>597.47</v>
       </c>
       <c r="D31" t="n">
-        <v>587.66</v>
+        <v>656.99</v>
       </c>
       <c r="E31" t="n">
-        <v>26.192</v>
+        <v>22.968</v>
       </c>
     </row>
     <row r="32">
@@ -1036,117 +1036,117 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>381.48</v>
+        <v>321.16</v>
       </c>
       <c r="D32" t="n">
-        <v>440.78</v>
+        <v>392.62</v>
       </c>
       <c r="E32" t="n">
-        <v>0.432</v>
+        <v>4.608</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>440.78</v>
+        <v>536.35</v>
       </c>
       <c r="D33" t="n">
-        <v>526.8200000000001</v>
+        <v>593.71</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>25.944</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>578.12</v>
+        <v>628.26</v>
       </c>
       <c r="D34" t="n">
-        <v>640.86</v>
+        <v>678.4400000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>23.06</v>
+        <v>20.788</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>601.4</v>
+        <v>392.62</v>
       </c>
       <c r="D35" t="n">
-        <v>655.22</v>
+        <v>453.72</v>
       </c>
       <c r="E35" t="n">
-        <v>23.628</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>655.22</v>
+        <v>453.72</v>
       </c>
       <c r="D36" t="n">
-        <v>705.42</v>
+        <v>549.86</v>
       </c>
       <c r="E36" t="n">
-        <v>20.248</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>550.78</v>
+        <v>678.4400000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>608.16</v>
+        <v>735.78</v>
       </c>
       <c r="E37" t="n">
-        <v>26.932</v>
+        <v>17.664</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1154,13 +1154,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>526.8200000000001</v>
+        <v>735.78</v>
       </c>
       <c r="D38" t="n">
-        <v>593.72</v>
+        <v>777.58</v>
       </c>
       <c r="E38" t="n">
-        <v>26.46</v>
+        <v>14.124</v>
       </c>
     </row>
     <row r="39">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>640.86</v>
+        <v>656.99</v>
       </c>
       <c r="D39" t="n">
-        <v>700.74</v>
+        <v>713.59</v>
       </c>
       <c r="E39" t="n">
-        <v>19.672</v>
+        <v>19.428</v>
       </c>
     </row>
     <row r="40">
@@ -1188,41 +1188,41 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>608.16</v>
+        <v>719.48</v>
       </c>
       <c r="D40" t="n">
-        <v>689.08</v>
+        <v>771.38</v>
       </c>
       <c r="E40" t="n">
-        <v>22.46</v>
+        <v>20.656</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>601.12</v>
+        <v>549.86</v>
       </c>
       <c r="D41" t="n">
-        <v>673.88</v>
+        <v>634.26</v>
       </c>
       <c r="E41" t="n">
-        <v>26.864</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1230,89 +1230,89 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>593.72</v>
+        <v>777.58</v>
       </c>
       <c r="D42" t="n">
-        <v>621.3200000000001</v>
+        <v>805.1799999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>24.34</v>
+        <v>12.004</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>621.3200000000001</v>
+        <v>346.34</v>
       </c>
       <c r="D43" t="n">
-        <v>669.98</v>
+        <v>387.3</v>
       </c>
       <c r="E43" t="n">
-        <v>21.584</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>673.88</v>
+        <v>634.26</v>
       </c>
       <c r="D44" t="n">
-        <v>713.78</v>
+        <v>698.34</v>
       </c>
       <c r="E44" t="n">
-        <v>24.004</v>
+        <v>22.892</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>700.74</v>
+        <v>593.71</v>
       </c>
       <c r="D45" t="n">
-        <v>756.38</v>
+        <v>653.21</v>
       </c>
       <c r="E45" t="n">
-        <v>16.708</v>
+        <v>23.084</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>705.42</v>
+        <v>387.3</v>
       </c>
       <c r="D46" t="n">
-        <v>775.3200000000001</v>
+        <v>475.7</v>
       </c>
       <c r="E46" t="n">
-        <v>16.868</v>
+        <v>3.48</v>
       </c>
     </row>
   </sheetData>
